--- a/Conversion_from_v4/class.xlsx
+++ b/Conversion_from_v4/class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="28140" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="21720" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
   <si>
     <t>Ingredient</t>
   </si>
@@ -442,6 +442,132 @@
   </si>
   <si>
     <t>2nd Level - Therapeutic Subgroup</t>
+  </si>
+  <si>
+    <t>Infectious Disease</t>
+  </si>
+  <si>
+    <t>Certain infectious and parasitic diseases</t>
+  </si>
+  <si>
+    <t>Neoplasm</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>Diseases of the blood and blood-forming organs and certain disorders involving the immune mechanism</t>
+  </si>
+  <si>
+    <t>Endocrine Disease</t>
+  </si>
+  <si>
+    <t>Mental Disease</t>
+  </si>
+  <si>
+    <t>Nervous Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the nervous system</t>
+  </si>
+  <si>
+    <t>Eye Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the eye and adnexa</t>
+  </si>
+  <si>
+    <t>Ear Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the ear and mastoid process</t>
+  </si>
+  <si>
+    <t>Circulatory Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the circulatory system</t>
+  </si>
+  <si>
+    <t>Respiratory Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the respiratory system</t>
+  </si>
+  <si>
+    <t>Digestive Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the digestive system</t>
+  </si>
+  <si>
+    <t>Skin Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the skin and subcutaneous tissue</t>
+  </si>
+  <si>
+    <t>Soft Tissue Disease</t>
+  </si>
+  <si>
+    <t>Diseases of the musculoskeletal system and connective tissue</t>
+  </si>
+  <si>
+    <t>Diseases of the genitourinary system</t>
+  </si>
+  <si>
+    <t>Pregnancy</t>
+  </si>
+  <si>
+    <t>Perinatal Disease</t>
+  </si>
+  <si>
+    <t>Certain conditions originating in the perinatal period</t>
+  </si>
+  <si>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>External causes of morbidity</t>
+  </si>
+  <si>
+    <t>Health Service</t>
+  </si>
+  <si>
+    <t>Factors influencing health status and contact with health services</t>
+  </si>
+  <si>
+    <t>Blood/Immune Disease</t>
+  </si>
+  <si>
+    <t>Congenital Disease</t>
+  </si>
+  <si>
+    <t>External Cause</t>
+  </si>
+  <si>
+    <t>Endocrine, nutritional and metabolic diseases</t>
+  </si>
+  <si>
+    <t>Mental, Behavioral and Neurodevelopmental disorders</t>
+  </si>
+  <si>
+    <t>Pregnancy, childbirth and the puerperium</t>
+  </si>
+  <si>
+    <t>Congenital malformations, deformations and chromosomal abnormalities</t>
+  </si>
+  <si>
+    <t>Symptoms, signs and abnormal clinical and laboratory findings, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Injury, poisoning and certain other consequences of external causes</t>
+  </si>
+  <si>
+    <t>Genitourinary Dis</t>
   </si>
 </sst>
 </file>
@@ -459,8 +585,9 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -780,15 +907,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -798,7 +927,7 @@
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -809,7 +938,7 @@
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>44818986</v>
       </c>
     </row>
@@ -820,7 +949,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>44819002</v>
       </c>
     </row>
@@ -831,7 +960,7 @@
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>44819087</v>
       </c>
     </row>
@@ -842,7 +971,7 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>44819054</v>
       </c>
     </row>
@@ -853,7 +982,7 @@
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>44819070</v>
       </c>
     </row>
@@ -864,7 +993,7 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>44819019</v>
       </c>
     </row>
@@ -875,7 +1004,7 @@
       <c r="B8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>44819047</v>
       </c>
     </row>
@@ -886,7 +1015,7 @@
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>44818996</v>
       </c>
     </row>
@@ -897,7 +1026,7 @@
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>44819065</v>
       </c>
     </row>
@@ -908,7 +1037,7 @@
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>44819063</v>
       </c>
     </row>
@@ -919,7 +1048,7 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>44819004</v>
       </c>
     </row>
@@ -930,7 +1059,7 @@
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>44819041</v>
       </c>
     </row>
@@ -941,7 +1070,7 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>44818982</v>
       </c>
     </row>
@@ -952,7 +1081,7 @@
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>44819053</v>
       </c>
     </row>
@@ -963,7 +1092,7 @@
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>44818991</v>
       </c>
     </row>
@@ -974,7 +1103,7 @@
       <c r="B17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>44819090</v>
       </c>
     </row>
@@ -985,7 +1114,7 @@
       <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>44819091</v>
       </c>
     </row>
@@ -996,7 +1125,7 @@
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>44819068</v>
       </c>
     </row>
@@ -1007,7 +1136,7 @@
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>44819028</v>
       </c>
     </row>
@@ -1018,7 +1147,7 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>44819064</v>
       </c>
     </row>
@@ -1029,7 +1158,7 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>44819020</v>
       </c>
     </row>
@@ -1040,7 +1169,7 @@
       <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>44818997</v>
       </c>
     </row>
@@ -1051,7 +1180,7 @@
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>44818992</v>
       </c>
     </row>
@@ -1062,7 +1191,7 @@
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>44819026</v>
       </c>
     </row>
@@ -1073,7 +1202,7 @@
       <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>44819048</v>
       </c>
     </row>
@@ -1084,7 +1213,7 @@
       <c r="B27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>44819034</v>
       </c>
     </row>
@@ -1095,7 +1224,7 @@
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>44819012</v>
       </c>
     </row>
@@ -1106,7 +1235,7 @@
       <c r="B29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>44819051</v>
       </c>
     </row>
@@ -1117,7 +1246,7 @@
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>44819049</v>
       </c>
     </row>
@@ -1128,7 +1257,7 @@
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>44819074</v>
       </c>
     </row>
@@ -1139,7 +1268,7 @@
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>44819000</v>
       </c>
     </row>
@@ -1150,7 +1279,7 @@
       <c r="B33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>44819094</v>
       </c>
     </row>
@@ -1161,7 +1290,7 @@
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>44819027</v>
       </c>
     </row>
@@ -1172,7 +1301,7 @@
       <c r="B35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>44819077</v>
       </c>
     </row>
@@ -1183,7 +1312,7 @@
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>44819003</v>
       </c>
     </row>
@@ -1194,7 +1323,7 @@
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>44819083</v>
       </c>
     </row>
@@ -1205,7 +1334,7 @@
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>44819025</v>
       </c>
     </row>
@@ -1216,7 +1345,7 @@
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>44819066</v>
       </c>
     </row>
@@ -1227,7 +1356,7 @@
       <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>44818993</v>
       </c>
     </row>
@@ -1238,7 +1367,7 @@
       <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>44819024</v>
       </c>
     </row>
@@ -1249,7 +1378,7 @@
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>44819078</v>
       </c>
     </row>
@@ -1260,7 +1389,7 @@
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>44819069</v>
       </c>
     </row>
@@ -1271,7 +1400,7 @@
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>44819040</v>
       </c>
     </row>
@@ -1282,7 +1411,7 @@
       <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>44819084</v>
       </c>
     </row>
@@ -1293,7 +1422,7 @@
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>44819038</v>
       </c>
     </row>
@@ -1304,7 +1433,7 @@
       <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>44819082</v>
       </c>
     </row>
@@ -1315,7 +1444,7 @@
       <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>44819035</v>
       </c>
     </row>
@@ -1326,7 +1455,7 @@
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>44819056</v>
       </c>
     </row>
@@ -1337,7 +1466,7 @@
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>44819086</v>
       </c>
     </row>
@@ -1348,7 +1477,7 @@
       <c r="B51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>44819085</v>
       </c>
     </row>
@@ -1359,7 +1488,7 @@
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>44818990</v>
       </c>
     </row>
@@ -1370,7 +1499,7 @@
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>44819018</v>
       </c>
     </row>
@@ -1381,7 +1510,7 @@
       <c r="B54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>44819042</v>
       </c>
     </row>
@@ -1392,7 +1521,7 @@
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>44818981</v>
       </c>
     </row>
@@ -1403,7 +1532,7 @@
       <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>44819081</v>
       </c>
     </row>
@@ -1414,7 +1543,7 @@
       <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>44819011</v>
       </c>
     </row>
@@ -1425,7 +1554,7 @@
       <c r="B58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>44819059</v>
       </c>
     </row>
@@ -1436,7 +1565,7 @@
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>44819001</v>
       </c>
     </row>
@@ -1447,7 +1576,7 @@
       <c r="B60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>44819071</v>
       </c>
     </row>
@@ -1458,7 +1587,7 @@
       <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>44819005</v>
       </c>
     </row>
@@ -1469,7 +1598,7 @@
       <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>44819058</v>
       </c>
     </row>
@@ -1480,7 +1609,7 @@
       <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>44819008</v>
       </c>
     </row>
@@ -1491,7 +1620,7 @@
       <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>44819057</v>
       </c>
     </row>
@@ -1502,7 +1631,7 @@
       <c r="B65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>44819061</v>
       </c>
     </row>
@@ -1513,7 +1642,7 @@
       <c r="B66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>44819062</v>
       </c>
     </row>
@@ -1524,7 +1653,7 @@
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>44819029</v>
       </c>
     </row>
@@ -1535,7 +1664,7 @@
       <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>44819093</v>
       </c>
     </row>
@@ -1546,7 +1675,7 @@
       <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>44819076</v>
       </c>
     </row>
@@ -1557,7 +1686,7 @@
       <c r="B70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>44819043</v>
       </c>
     </row>
@@ -1568,7 +1697,7 @@
       <c r="B71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>44819079</v>
       </c>
     </row>
@@ -1579,7 +1708,7 @@
       <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>44818983</v>
       </c>
     </row>
@@ -1590,7 +1719,7 @@
       <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>44819089</v>
       </c>
     </row>
@@ -1601,7 +1730,7 @@
       <c r="B74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>44819007</v>
       </c>
     </row>
@@ -1612,7 +1741,7 @@
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>44819006</v>
       </c>
     </row>
@@ -1623,7 +1752,7 @@
       <c r="B76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>44819052</v>
       </c>
     </row>
@@ -1634,7 +1763,7 @@
       <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>44819009</v>
       </c>
     </row>
@@ -1645,7 +1774,7 @@
       <c r="B78" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>44819067</v>
       </c>
     </row>
@@ -1656,7 +1785,7 @@
       <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>44818984</v>
       </c>
     </row>
@@ -1667,7 +1796,7 @@
       <c r="B80" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>44818985</v>
       </c>
     </row>
@@ -1678,7 +1807,7 @@
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>44819080</v>
       </c>
     </row>
@@ -1689,7 +1818,7 @@
       <c r="B82" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>44819095</v>
       </c>
     </row>
@@ -1700,7 +1829,7 @@
       <c r="B83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>44819013</v>
       </c>
     </row>
@@ -1711,7 +1840,7 @@
       <c r="B84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>44819014</v>
       </c>
     </row>
@@ -1722,7 +1851,7 @@
       <c r="B85" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>44819017</v>
       </c>
     </row>
@@ -1733,7 +1862,7 @@
       <c r="B86" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>44819021</v>
       </c>
     </row>
@@ -1744,7 +1873,7 @@
       <c r="B87" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>44819092</v>
       </c>
     </row>
@@ -1755,7 +1884,7 @@
       <c r="B88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>44819030</v>
       </c>
     </row>
@@ -1766,7 +1895,7 @@
       <c r="B89" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>44818999</v>
       </c>
     </row>
@@ -1777,7 +1906,7 @@
       <c r="B90" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>44819075</v>
       </c>
     </row>
@@ -1788,7 +1917,7 @@
       <c r="B91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>44819060</v>
       </c>
     </row>
@@ -1799,7 +1928,7 @@
       <c r="B92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>44819037</v>
       </c>
     </row>
@@ -1810,7 +1939,7 @@
       <c r="B93" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>44819022</v>
       </c>
     </row>
@@ -1821,7 +1950,7 @@
       <c r="B94" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>44819046</v>
       </c>
     </row>
@@ -1832,7 +1961,7 @@
       <c r="B95" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>44819016</v>
       </c>
     </row>
@@ -1843,108 +1972,359 @@
       <c r="B96" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>44819055</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>44819010</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>44819073</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>44819050</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>44819088</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>44818995</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>44819044</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>44819072</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>44819023</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>44819039</v>
       </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44819188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
+      <c r="A107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44819168</v>
+      </c>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="1:4" ht="15">
+      <c r="A108" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44819169</v>
+      </c>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="1:4" ht="15">
+      <c r="A109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44819170</v>
+      </c>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="1:4" ht="15">
+      <c r="A110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44819171</v>
+      </c>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="1:4" ht="15">
+      <c r="A111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44819172</v>
+      </c>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="1:4" ht="15">
+      <c r="A112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44819173</v>
+      </c>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="1:4" ht="15">
+      <c r="A113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44819174</v>
+      </c>
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="1:4" ht="15">
+      <c r="A114" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44819175</v>
+      </c>
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="1:4" ht="15">
+      <c r="A115" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44819176</v>
+      </c>
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="1:4" ht="15">
+      <c r="A116" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44819177</v>
+      </c>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:4" ht="15">
+      <c r="A117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44819178</v>
+      </c>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="1:4" ht="15">
+      <c r="A118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44819179</v>
+      </c>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="1:4" ht="15">
+      <c r="A119" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44819180</v>
+      </c>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="1:4" ht="15">
+      <c r="A120" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44819181</v>
+      </c>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="1:4" ht="15">
+      <c r="A121" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44819182</v>
+      </c>
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="1:4" ht="15">
+      <c r="A122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44819183</v>
+      </c>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="1:4" ht="15">
+      <c r="A123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44819184</v>
+      </c>
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="1:4" ht="15">
+      <c r="A124" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="1">
+        <v>44819185</v>
+      </c>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:4" ht="15">
+      <c r="A125" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" s="1">
+        <v>44819186</v>
+      </c>
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="1:4" ht="15">
+      <c r="A126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="1">
+        <v>44819187</v>
+      </c>
+      <c r="D126"/>
     </row>
   </sheetData>
   <sortState ref="A2:D116">
